--- a/customers.xlsx
+++ b/customers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>email</t>
   </si>
@@ -37,6 +37,57 @@
   </si>
   <si>
     <t>kk</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Survey number</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>love@gmail.com</t>
+  </si>
+  <si>
+    <t>Valsad</t>
+  </si>
+  <si>
+    <t>add_1</t>
+  </si>
+  <si>
+    <t>add_2</t>
+  </si>
+  <si>
+    <t>add_3</t>
   </si>
 </sst>
 </file>
@@ -381,15 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -397,29 +451,107 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>57657</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2">
+        <v>435</v>
+      </c>
+      <c r="G2">
+        <v>396001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>8866324756</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>7868</v>
+      </c>
+      <c r="G3">
+        <v>396001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="416">
   <si>
     <t>email</t>
   </si>
@@ -27,18 +27,9 @@
     <t>zone</t>
   </si>
   <si>
-    <t>valsad</t>
-  </si>
-  <si>
     <t>Establishment Name</t>
   </si>
   <si>
-    <t>t@gmail.com</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -60,41 +51,1226 @@
     <t>Address 3</t>
   </si>
   <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>add1</t>
-  </si>
-  <si>
-    <t>add2</t>
-  </si>
-  <si>
-    <t>add3</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>love@gmail.com</t>
-  </si>
-  <si>
-    <t>Valsad</t>
-  </si>
-  <si>
-    <t>add_1</t>
-  </si>
-  <si>
-    <t>add_2</t>
-  </si>
-  <si>
-    <t>add_3</t>
+    <t xml:space="preserve">BHANU METAL INDUSTRIES </t>
+  </si>
+  <si>
+    <t>GANESH STONE QUARRY</t>
+  </si>
+  <si>
+    <t>GUJARAT CONSTRUCTION CO</t>
+  </si>
+  <si>
+    <t>JALARAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>MARUTI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>MUKESH RAJENDRAPRASHAD THAKUR</t>
+  </si>
+  <si>
+    <t>ODHAV STONE QUARRY</t>
+  </si>
+  <si>
+    <t>PADMA STONE CO</t>
+  </si>
+  <si>
+    <t>PATEL STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>PATEL STONE QUARRY</t>
+  </si>
+  <si>
+    <t>PRAMUKH STONE QUARRY</t>
+  </si>
+  <si>
+    <t>R.DESAI AND CO</t>
+  </si>
+  <si>
+    <t>R.K. MISHRA &amp; SONS</t>
+  </si>
+  <si>
+    <t>R.R.MISHRA</t>
+  </si>
+  <si>
+    <t>ROSHNI STONE CRUSHER MASHINE CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI STONE CO. </t>
+  </si>
+  <si>
+    <t>SHIVSHAKTI STONE SUPPYIERS</t>
+  </si>
+  <si>
+    <t>SHREE GHANSHYAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE KRISHNA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE OM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE RAMESHWER STONE SUPPLIERS</t>
+  </si>
+  <si>
+    <t>SHRI SAKTI STONE c/o bharat gandhi</t>
+  </si>
+  <si>
+    <t>MUKESH B PATEL</t>
+  </si>
+  <si>
+    <t>NILKANTH STONE IND</t>
+  </si>
+  <si>
+    <t>AKSHAR STONE QUARRY</t>
+  </si>
+  <si>
+    <t>ALIPORE METAL WORKS</t>
+  </si>
+  <si>
+    <t>AMARDEEP METAL WORKS</t>
+  </si>
+  <si>
+    <t>AMARNATH METAL WORKS</t>
+  </si>
+  <si>
+    <t>ANISH INFRACON INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>ASHOK QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>AZIZ STONE QUARRY</t>
+  </si>
+  <si>
+    <t>BAJRANG STONE QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>BALAJI METAL WORKS</t>
+  </si>
+  <si>
+    <t>BANSHIDHAR METALS</t>
+  </si>
+  <si>
+    <t>BHAVIN QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>BLACK DIAMOND STONE QUARRY</t>
+  </si>
+  <si>
+    <t>DIAMOND STONE</t>
+  </si>
+  <si>
+    <t>DURGA METALS</t>
+  </si>
+  <si>
+    <t>DUVADA STONE SUPLLY CO</t>
+  </si>
+  <si>
+    <t>EAGLE CEMENT PRODUCTS</t>
+  </si>
+  <si>
+    <t>EAGLE STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>GALAXY STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>GANESH QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>GAYATRI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>GHANSHYAM QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>GIRIRAJ STONE QUARRY</t>
+  </si>
+  <si>
+    <t>GIRNAR METALS</t>
+  </si>
+  <si>
+    <t>GOKUL STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>GUJARAT METALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULAMBHAI AHMADBHAI HAJAT </t>
+  </si>
+  <si>
+    <t>HANS QUARRY &amp; METAL WORKS</t>
+  </si>
+  <si>
+    <t>JALARAM STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>JAY AMBE QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>JAY KHODIYAR METALS</t>
+  </si>
+  <si>
+    <t>KALYAN QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>KANAIYA METALS</t>
+  </si>
+  <si>
+    <t>KANERIYA SAND &amp; AGGREGATES (P) LTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISHAN QUARRY WORKS </t>
+  </si>
+  <si>
+    <t>KRISHNA QUARRY</t>
+  </si>
+  <si>
+    <t>LAXMI METAL QUARRY WORKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARUTI METALS </t>
+  </si>
+  <si>
+    <t>NILKANTH STONE QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>OM SAI METALS</t>
+  </si>
+  <si>
+    <t>PARTH ENTERPRISE</t>
+  </si>
+  <si>
+    <t>PARTH METAL WORKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATEL METALS </t>
+  </si>
+  <si>
+    <t>PRAKASH QUARRY WORKS PVT LTD.</t>
+  </si>
+  <si>
+    <t>RAJ QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>RAJHANS METALS</t>
+  </si>
+  <si>
+    <t>RAVI STONE QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SAHAJANAND METALS</t>
+  </si>
+  <si>
+    <t>SAI STONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVAM STONE INDUSTRIES </t>
+  </si>
+  <si>
+    <t>SHIVAM STONE SUPLLY CO</t>
+  </si>
+  <si>
+    <t>SHRAWAN MINES</t>
+  </si>
+  <si>
+    <t>SHREE OMKAR QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SHREE RAM METAL WORKS</t>
+  </si>
+  <si>
+    <t>SHREE RAM QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SHREE SHIVSHAKTI STONE SUPPLIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHREE VINAYAK METALS </t>
+  </si>
+  <si>
+    <t>SHREE VINAYAK STONE</t>
+  </si>
+  <si>
+    <t>SHREENATHJI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHRI SAHID AKBARBHAI VIJAPURA</t>
+  </si>
+  <si>
+    <t>SOMNATH STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>STONE WORLD CORPORATION</t>
+  </si>
+  <si>
+    <t>TIRUPATI STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>UMIYA QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>UNION QUARRY</t>
+  </si>
+  <si>
+    <t>VIKRAM QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>VISHAL METALS RAKESH R THAKUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISHAL QUARRY </t>
+  </si>
+  <si>
+    <t>VRUNDAVAN METALS</t>
+  </si>
+  <si>
+    <t>SHREE SIDHHI VINAYAK STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE JALARAM STONE QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>Himmatbhai B Patel</t>
+  </si>
+  <si>
+    <t>Khandubhai M Patel</t>
+  </si>
+  <si>
+    <t>ASHARAMJI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>ATIK METAL INDUSTRIES</t>
+  </si>
+  <si>
+    <t>Avadh Stone Quarry</t>
+  </si>
+  <si>
+    <t>BALAJI STONE QUARRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHUMI STONE QUARRY </t>
+  </si>
+  <si>
+    <t>Dhara Stone Quarry</t>
+  </si>
+  <si>
+    <t>Kailash Stone Quarry</t>
+  </si>
+  <si>
+    <t>KRISHNA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>Nilesh Ramlaxman Upadhyay</t>
+  </si>
+  <si>
+    <t>SAGAR STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>REAL STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SWASTIK STONE</t>
+  </si>
+  <si>
+    <t>Dharti Stone Quarry</t>
+  </si>
+  <si>
+    <t>SONAR STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE RAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>Mahakali Stone Quarry</t>
+  </si>
+  <si>
+    <t>GUJARAT STONE QUARRY</t>
+  </si>
+  <si>
+    <t>GIRNAR STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHREE SHYAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIRIRAJ STONE QUARRY </t>
+  </si>
+  <si>
+    <t>Parishram Stone Quarry</t>
+  </si>
+  <si>
+    <t>Jay Jalaram Stone Quarry</t>
+  </si>
+  <si>
+    <t>Sainath Stone Quarry</t>
+  </si>
+  <si>
+    <t>SHANTI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>MADHAV STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SUJAN STONE QUARRY</t>
+  </si>
+  <si>
+    <t>URJA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>BLACK STONE METAL</t>
+  </si>
+  <si>
+    <t>PRABHAT STONE QUARRY</t>
+  </si>
+  <si>
+    <t>Rajesh Stone Quarry</t>
+  </si>
+  <si>
+    <t>SAI SAHKAR STONE QUARRY</t>
+  </si>
+  <si>
+    <t>MAHALAXMI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>JJ STONE QUARRY</t>
+  </si>
+  <si>
+    <t>KANAIYA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>BHAGUBHAI J GAMIT</t>
+  </si>
+  <si>
+    <t>VIKAS STONE QUARRY</t>
+  </si>
+  <si>
+    <t>MUNAFBHAI</t>
+  </si>
+  <si>
+    <t>Vaibhavraj Stone Quarry</t>
+  </si>
+  <si>
+    <t>Sai Shraddha Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/s. Shivam Enterprise </t>
+  </si>
+  <si>
+    <t>Shree Radhe Metals</t>
+  </si>
+  <si>
+    <t>Classic Stone Quarry</t>
+  </si>
+  <si>
+    <t>Krishna Stone Quarry</t>
+  </si>
+  <si>
+    <t>Shiv Shakti Stone Quarry</t>
+  </si>
+  <si>
+    <t>Suleman Yusuf Motala</t>
+  </si>
+  <si>
+    <t>Shree Ram Quarry</t>
+  </si>
+  <si>
+    <t>Shree Umiya Annpurna Stone Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G.Patel </t>
+  </si>
+  <si>
+    <t>Padma Stone Quarry</t>
+  </si>
+  <si>
+    <t>Hari Stone Quarry</t>
+  </si>
+  <si>
+    <t>Jay Ambe Stone Quarry</t>
+  </si>
+  <si>
+    <t>Tapi Stone Quarry</t>
+  </si>
+  <si>
+    <t>Evrest Stone Quarry</t>
+  </si>
+  <si>
+    <t>Shramdeep Quarry Works</t>
+  </si>
+  <si>
+    <t>Chetan Stone Quarry</t>
+  </si>
+  <si>
+    <t>Atlas Stone Quarry</t>
+  </si>
+  <si>
+    <t>Jalaram Quarry</t>
+  </si>
+  <si>
+    <t>Chamunda Stone Quarry</t>
+  </si>
+  <si>
+    <t>New Madhav Stone Quarry</t>
+  </si>
+  <si>
+    <t>Patidar Stone Industries</t>
+  </si>
+  <si>
+    <t>Vishal Stone Industries</t>
+  </si>
+  <si>
+    <t>Maruti Stone Crusher Co.</t>
+  </si>
+  <si>
+    <t>Keshvji Devji And Sons</t>
+  </si>
+  <si>
+    <t>Madhav Stone Quarry</t>
+  </si>
+  <si>
+    <t>Nilkanth Stone Quarry</t>
+  </si>
+  <si>
+    <t>Ambika Stone Quarry</t>
+  </si>
+  <si>
+    <t>Premier Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrundavan Stone Crusher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogeshwar Enterprise </t>
+  </si>
+  <si>
+    <t>Super Stone Quarry</t>
+  </si>
+  <si>
+    <t>Black Stone</t>
+  </si>
+  <si>
+    <t>Shreeji Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudra Stone Quarry </t>
+  </si>
+  <si>
+    <t>Ridhhi Sidhhi Stone Quarry</t>
+  </si>
+  <si>
+    <t>Sai Stone Quarry</t>
+  </si>
+  <si>
+    <t>Harihar Quarry</t>
+  </si>
+  <si>
+    <t>Jyoti Minearls</t>
+  </si>
+  <si>
+    <t>Vijay Stone Quarry</t>
+  </si>
+  <si>
+    <t>Patel Stone Quarry</t>
+  </si>
+  <si>
+    <t>Annapurna Stone Quarry</t>
+  </si>
+  <si>
+    <t>Amrut Stone Quarry</t>
+  </si>
+  <si>
+    <t>Dhartidhan Stone Quarry</t>
+  </si>
+  <si>
+    <t>Sat Keval Stone Quarry K L Chaudhary</t>
+  </si>
+  <si>
+    <t>Karmayog Stone Quarry</t>
+  </si>
+  <si>
+    <t>Royal Stone Quarry</t>
+  </si>
+  <si>
+    <t>Laxmi Quarry Works</t>
+  </si>
+  <si>
+    <t>Mateshwari Stone Quarry</t>
+  </si>
+  <si>
+    <t>Padma Stone co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nidhi Stone </t>
+  </si>
+  <si>
+    <t>National Quarry Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patel Stone Quarry </t>
+  </si>
+  <si>
+    <t>Ganesh Stone Quarry</t>
+  </si>
+  <si>
+    <t>Maharshi Stone Quarry</t>
+  </si>
+  <si>
+    <t>New Kalapi Stone Industries</t>
+  </si>
+  <si>
+    <t>Shree Khodiyar Stone Quarry</t>
+  </si>
+  <si>
+    <t>Shree Mahadev Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahida Brother Stone Industries </t>
+  </si>
+  <si>
+    <t>Jalaram Stone Quarry</t>
+  </si>
+  <si>
+    <t>Madhav Quarry</t>
+  </si>
+  <si>
+    <t>Mahadev Quarry</t>
+  </si>
+  <si>
+    <t>Shreenath Stone Quarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapi Stone Quarry </t>
+  </si>
+  <si>
+    <t>Shree Krishna Metal</t>
+  </si>
+  <si>
+    <t>Maruti Stone Quarry</t>
+  </si>
+  <si>
+    <t>BAJARANG  QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>BALAJI STONE CRUSHER</t>
+  </si>
+  <si>
+    <t>BOOT BHAVANI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>DHAVAL QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>DURGA QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>GOKUL STONE QUARRY</t>
+  </si>
+  <si>
+    <t>HARIRAM QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>JAY JYOTI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>JAY MATAJI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>JAYESH QUARRY  WORKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRISHNA STONE CRUSHER </t>
+  </si>
+  <si>
+    <t>NILKANTH QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>PANCHVATI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>PRAMUKH METAL QUARRY</t>
+  </si>
+  <si>
+    <t>RAJESH QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SAGAR STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHIVSHAKTI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SHREE GANESH QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SHREE JAY JALARAM QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SHREE RAM STONE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>SHREEJI QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>SOMNATH CRUSHER QUARRY</t>
+  </si>
+  <si>
+    <t>VASUDEV MINEARALS COMPANY</t>
+  </si>
+  <si>
+    <t>SHREE OM VIRAL QUARRY WORKS</t>
+  </si>
+  <si>
+    <t>BACKBONE MINERALS CO</t>
+  </si>
+  <si>
+    <t>MADHAV QUARRY</t>
+  </si>
+  <si>
+    <t>NARMADA STONE CRUSHER</t>
+  </si>
+  <si>
+    <t>Amber Quarry Works Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHA STONE QUARRY </t>
+  </si>
+  <si>
+    <t>ASHAPURA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>JAY AMBE STONE QUARRY</t>
+  </si>
+  <si>
+    <t>JAY JALARAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>KHODIYAR STONE WORKS</t>
+  </si>
+  <si>
+    <t>KRISHNA STONE WORKS</t>
+  </si>
+  <si>
+    <t>KYRIE INFRA STONE QUARRY</t>
+  </si>
+  <si>
+    <t>LAXMI STONE C/O AMRUT.D.PATEL</t>
+  </si>
+  <si>
+    <t>MAHALAXMI  STONE CRUSH</t>
+  </si>
+  <si>
+    <t>PARVATI STONE WORKS</t>
+  </si>
+  <si>
+    <t>PATIL STONE QUARRY</t>
+  </si>
+  <si>
+    <t>RAJ STONE QUARRY</t>
+  </si>
+  <si>
+    <t>SHAKTI STONE WORKS</t>
+  </si>
+  <si>
+    <t>SHIV STONE WORKS</t>
+  </si>
+  <si>
+    <t>SHIVKRUPA STONE WORKS</t>
+  </si>
+  <si>
+    <t>VAISHALI STONE QUARRY</t>
+  </si>
+  <si>
+    <t>VARSHA STONE WORKS</t>
+  </si>
+  <si>
+    <t>VIKRAM STONE QUARRY</t>
+  </si>
+  <si>
+    <t>VISHAL STONE QUARRY</t>
+  </si>
+  <si>
+    <t>YATISH STONE QUARRY</t>
+  </si>
+  <si>
+    <t>bhanu.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>ganesh.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>gcc.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>girish.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>dilip.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>raju.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>viraj.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>mukesh.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>odhav.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>padma.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>dcp.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>pankaj.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>jituravat.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>rdesai.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>anwar.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>dipesh.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>roshni.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>dhiru.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>shivshakti.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>gmpatel.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>amrut.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>kiran.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>rajan.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>deep.valsad@yahoo.com</t>
+  </si>
+  <si>
+    <t>mbpatel.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>nilkanthstone.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>akshar.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>alipore.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>amardeep.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>amarnath.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>anishinfra.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ashok.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>aziz.khergam@gmail.com</t>
+  </si>
+  <si>
+    <t>jayeshdesai.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>balaji.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>banshidhar.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavinmanu.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ynd.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>dimond.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>durga.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>duvada.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>eglechem.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>egle.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>galaxy.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ganesh.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>gayatri.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ghanshyam.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>giriraj.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>girnar.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>gokul.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>gujarat.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>gulam.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>hans.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>jalaram.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>jay.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>jaykhodiyar.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>kanaiya.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ks.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>kishan.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>laxmi.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>marutimetals.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>nilkanth.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>omsai.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>parth.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>parthpatiya.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>patel.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>pravin.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>rajtejash.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>rajhans.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>ravistone.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>sahjanand.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>saistone.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>bharat.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>chagan.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>shrawan.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>omkar.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>shreeram.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>kirit.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>shivshakti.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>vinayak.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>shreenathji.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>vijapura.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>somnath.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>stone.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>tirupati.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>umiya.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>union.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>kanti.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>rthakur.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>vishalpatiya.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>vrundavan.valsad@gmail.com</t>
+  </si>
+  <si>
+    <t>ssv.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>jamanpada.navsari@gmail.com</t>
+  </si>
+  <si>
+    <t>himmat.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>khandu.chikhli@gmail.com</t>
+  </si>
+  <si>
+    <t>asharamji.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>atik.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>avadh.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>balaji.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>bhumi.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>dhara.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>kailash.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>krishnastone.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>nru.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>pramukh.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>sagarstone.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>realstone.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>swastik.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>dharti.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>jalaram.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>sonar.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>ramstone.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>mahakali.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>gujarat.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>girnar.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>shreenathji.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>shyam.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>giriraj.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>Parishram.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>shanti.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>madhav.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>sujan.tapi@gmail.com</t>
+  </si>
+  <si>
+    <t>urja.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>black.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>prabhat.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>rajesh.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>ss.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>mahalaxmi.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>jj.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>kanaya.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>bjg.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>vikas.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>munaf.tapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>vaibhavraj.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>avadhstone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>saiquarry.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>shreeradhe.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>classicstone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>krishnastone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>shivshaktistone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>symotala.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>ramquarry.surat@yahoo.com</t>
+  </si>
+  <si>
+    <t>umiya.surat@yahoo.com</t>
+  </si>
+  <si>
+    <t>dgpatel.surat@outlook.com</t>
+  </si>
+  <si>
+    <t>psq.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>haristone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>jayambestone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>tapistone.surat@gmail.com</t>
+  </si>
+  <si>
+    <t>247462kk@</t>
+  </si>
+  <si>
+    <t>VALSAD</t>
+  </si>
+  <si>
+    <t>NAVSARI</t>
+  </si>
+  <si>
+    <t>Tapi</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>BHARUCH</t>
+  </si>
+  <si>
+    <t>DAMAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +1285,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,10 +1344,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -134,9 +1399,42 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,26 +1730,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -460,98 +1764,3403 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>57657</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>435</v>
-      </c>
-      <c r="G2">
-        <v>396001</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B4" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="B10" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>8866324756</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B12" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>7868</v>
-      </c>
-      <c r="G3">
-        <v>396001</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B13" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="17">
+        <v>9825791888</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" s="17">
+        <v>9879135040</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="17">
+        <v>9825198894</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="17">
+        <v>9426844550</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="17">
+        <v>9825032175</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="17">
+        <v>9924144833</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="17">
+        <v>9825110929</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="17">
+        <v>9825418840</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="17">
+        <v>9427140750</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="17">
+        <v>9909580161</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="17">
+        <v>9824016475</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="17">
+        <v>9824054503</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" s="17">
+        <v>9925561148</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" s="17">
+        <v>9726111699</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="17">
+        <v>9825083540</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" s="17">
+        <v>9913594804</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="17">
+        <v>9925038610</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="17">
+        <v>9825076734</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="17">
+        <v>9898067103</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" s="17">
+        <v>9825156723</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D48" s="17">
+        <v>9687757200</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D49" s="17">
+        <v>9825137039</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D50" s="17">
+        <v>9824157110</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" s="17">
+        <v>9725338905</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D52" s="17">
+        <v>9824025027</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="17">
+        <v>9904074817</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="17">
+        <v>9904026781</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D55" s="17">
+        <v>9979987600</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="17">
+        <v>9825182372</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D57" s="17">
+        <v>9924035125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D58" s="17">
+        <v>9426770330</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D59" s="17">
+        <v>9427140669</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="17">
+        <v>9824131181</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75">
+      <c r="A61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D61" s="17">
+        <v>9825072816</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="17">
+        <v>9979760081</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="A63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D63" s="17">
+        <v>9099022112</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D64" s="17">
+        <v>9426866422</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D65" s="17">
+        <v>9825130131</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="17">
+        <v>9913882266</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D67" s="17">
+        <v>9879170307</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="17">
+        <v>9426808686</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D69" s="17">
+        <v>9913882266</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75">
+      <c r="A70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="17">
+        <v>9904540537</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75">
+      <c r="A71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" s="17">
+        <v>9825083987</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D72" s="17">
+        <v>9426888687</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D73" s="17">
+        <v>9879197257</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D74" s="17">
+        <v>7698826679</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="17">
+        <v>9913893999</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D76" s="17">
+        <v>9825546454</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="17">
+        <v>9824119340</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D78" s="17">
+        <v>9904096351</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D79" s="17">
+        <v>9825122611</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" s="17">
+        <v>9979841614</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D81" s="17">
+        <v>9824180779</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75">
+      <c r="A82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D82" s="17">
+        <v>9428163018</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83" s="17">
+        <v>9099112878</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75">
+      <c r="A84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="17">
+        <v>9099112878</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75">
+      <c r="A85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D85" s="17">
+        <v>9824901373</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" s="17">
+        <v>9825024956</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75">
+      <c r="A87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D87" s="17">
+        <v>9825152740</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75">
+      <c r="A88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D88" s="17">
+        <v>9825136114</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D89" s="17">
+        <v>9825136114</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90" s="17">
+        <v>9824573470</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75">
+      <c r="A91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D91" s="17">
+        <v>9824181361</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75">
+      <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="17">
+        <v>9925145980</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75">
+      <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="17">
+        <v>9979630603</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75">
+      <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="17">
+        <v>9824158023</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75">
+      <c r="A95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D95" s="17">
+        <v>9879170307</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75">
+      <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D96" s="17">
+        <v>9727574990</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75">
+      <c r="A97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97" s="17">
+        <v>9825377799</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D98" s="17">
+        <v>9979684840</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D99" s="17">
+        <v>9712190777</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D100" s="17">
+        <v>9824361543</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75">
+      <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75">
+      <c r="A103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75">
+      <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75">
+      <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75">
+      <c r="A106" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75">
+      <c r="A107" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75">
+      <c r="A108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75">
+      <c r="A109" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75">
+      <c r="A110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75">
+      <c r="A111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75">
+      <c r="A112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75">
+      <c r="A113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75">
+      <c r="A114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75">
+      <c r="A115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="B115" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75">
+      <c r="A117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75">
+      <c r="A118" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75">
+      <c r="A120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75">
+      <c r="A121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75">
+      <c r="A122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75">
+      <c r="A123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75">
+      <c r="A124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75">
+      <c r="A125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75">
+      <c r="A126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75">
+      <c r="A128" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75">
+      <c r="A129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75">
+      <c r="A130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75">
+      <c r="A131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75">
+      <c r="A132" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75">
+      <c r="A133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75">
+      <c r="A134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75">
+      <c r="A135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75">
+      <c r="A136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75">
+      <c r="A137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75">
+      <c r="A138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75">
+      <c r="A139" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75">
+      <c r="A140" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75">
+      <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75">
+      <c r="A142" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75">
+      <c r="A143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75">
+      <c r="A144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75">
+      <c r="A145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75">
+      <c r="A146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75">
+      <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30.75">
+      <c r="A148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75">
+      <c r="A149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75">
+      <c r="A150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75">
+      <c r="A151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75">
+      <c r="A152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75">
+      <c r="A153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75">
+      <c r="A154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75">
+      <c r="A155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75">
+      <c r="A156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75">
+      <c r="A159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75">
+      <c r="A160" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75">
+      <c r="A162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75">
+      <c r="A163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75">
+      <c r="A164" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75">
+      <c r="A165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75">
+      <c r="A166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75">
+      <c r="A167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75">
+      <c r="A168" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75">
+      <c r="A169" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75">
+      <c r="A170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75">
+      <c r="A172" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75">
+      <c r="A173" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75">
+      <c r="A174" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75">
+      <c r="A175" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75">
+      <c r="A176" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75">
+      <c r="A177" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75">
+      <c r="A178" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75">
+      <c r="A179" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75">
+      <c r="A180" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75">
+      <c r="A181" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75">
+      <c r="A182" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75">
+      <c r="A183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75">
+      <c r="A184" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75">
+      <c r="A185" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75">
+      <c r="A186" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75">
+      <c r="A187" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75">
+      <c r="A189" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75">
+      <c r="A190" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75">
+      <c r="A191" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75">
+      <c r="A192" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75">
+      <c r="A193" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75">
+      <c r="A194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75">
+      <c r="A195" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75">
+      <c r="A196" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75">
+      <c r="A197" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75">
+      <c r="A198" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75">
+      <c r="A199" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75">
+      <c r="A200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75">
+      <c r="A201" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75">
+      <c r="A202" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75">
+      <c r="A203" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75">
+      <c r="A204" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75">
+      <c r="A205" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75">
+      <c r="A206" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75">
+      <c r="A207" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75">
+      <c r="A208" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75">
+      <c r="A209" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75">
+      <c r="A210" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" display="mukesh.valsad@yahoo.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="odhav.valsad@yahoo.com"/>
+    <hyperlink ref="B6" r:id="rId4" display="padma.valsad@yahoo.com"/>
+    <hyperlink ref="B7" r:id="rId5" display="dcp.valsad@yahoo.com"/>
+    <hyperlink ref="B8" r:id="rId6" display="pankaj.valsad@yahoo.com"/>
+    <hyperlink ref="B9" r:id="rId7" display="jituravat.valsad@yahoo.com"/>
+    <hyperlink ref="B10" r:id="rId8" display="Karan@247462"/>
+    <hyperlink ref="B11" r:id="rId9" display="Karan@247462"/>
+    <hyperlink ref="B12" r:id="rId10" display="247462kk@"/>
+    <hyperlink ref="B13" r:id="rId11" display="mukesh.valsad@yahoo.com"/>
+    <hyperlink ref="B14" r:id="rId12" display="odhav.valsad@yahoo.com"/>
+    <hyperlink ref="B15" r:id="rId13" display="padma.valsad@yahoo.com"/>
+    <hyperlink ref="B16" r:id="rId14" display="dcp.valsad@yahoo.com"/>
+    <hyperlink ref="B17" r:id="rId15" display="jituravat.valsad@yahoo.com"/>
+    <hyperlink ref="B18" r:id="rId16" display="Karan@247462"/>
+    <hyperlink ref="B19" r:id="rId17" display="Karan@247462"/>
+    <hyperlink ref="B28" r:id="rId18"/>
+    <hyperlink ref="B29" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B33" r:id="rId23"/>
+    <hyperlink ref="B34" r:id="rId24"/>
+    <hyperlink ref="B35" r:id="rId25"/>
+    <hyperlink ref="B36" r:id="rId26"/>
+    <hyperlink ref="B37" r:id="rId27"/>
+    <hyperlink ref="B38" r:id="rId28"/>
+    <hyperlink ref="B39" r:id="rId29"/>
+    <hyperlink ref="B40" r:id="rId30"/>
+    <hyperlink ref="B41" r:id="rId31"/>
+    <hyperlink ref="B42" r:id="rId32"/>
+    <hyperlink ref="B43" r:id="rId33"/>
+    <hyperlink ref="B44" r:id="rId34"/>
+    <hyperlink ref="B45" r:id="rId35"/>
+    <hyperlink ref="B46" r:id="rId36"/>
+    <hyperlink ref="B47" r:id="rId37"/>
+    <hyperlink ref="B48" r:id="rId38"/>
+    <hyperlink ref="B49" r:id="rId39"/>
+    <hyperlink ref="B50" r:id="rId40"/>
+    <hyperlink ref="B51" r:id="rId41"/>
+    <hyperlink ref="B52" r:id="rId42"/>
+    <hyperlink ref="B53" r:id="rId43"/>
+    <hyperlink ref="B54" r:id="rId44"/>
+    <hyperlink ref="B55" r:id="rId45"/>
+    <hyperlink ref="B56" r:id="rId46"/>
+    <hyperlink ref="B57" r:id="rId47"/>
+    <hyperlink ref="B58" r:id="rId48"/>
+    <hyperlink ref="B59" r:id="rId49"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57" display="Karan@247462"/>
+    <hyperlink ref="B68" r:id="rId58" display="Karan@247462"/>
+    <hyperlink ref="B69" r:id="rId59" display="Karan@247462"/>
+    <hyperlink ref="B70" r:id="rId60" display="Karan@247462"/>
+    <hyperlink ref="B71" r:id="rId61" display="Karan@247462"/>
+    <hyperlink ref="B72" r:id="rId62" display="Karan@247462"/>
+    <hyperlink ref="B73" r:id="rId63" display="Karan@247462"/>
+    <hyperlink ref="B74" r:id="rId64" display="Karan@247462"/>
+    <hyperlink ref="B75" r:id="rId65" display="Karan@247462"/>
+    <hyperlink ref="B76" r:id="rId66" display="Karan@247462"/>
+    <hyperlink ref="B77" r:id="rId67" display="Karan@247462"/>
+    <hyperlink ref="B78" r:id="rId68" display="Karan@247462"/>
+    <hyperlink ref="B79" r:id="rId69" display="Karan@247462"/>
+    <hyperlink ref="B80" r:id="rId70" display="Karan@247462"/>
+    <hyperlink ref="B81" r:id="rId71" display="Karan@247462"/>
+    <hyperlink ref="B82" r:id="rId72" display="Karan@247462"/>
+    <hyperlink ref="B83" r:id="rId73" display="Karan@247462"/>
+    <hyperlink ref="B85" r:id="rId74" display="Karan@247462"/>
+    <hyperlink ref="B86" r:id="rId75" display="Karan@247462"/>
+    <hyperlink ref="B87" r:id="rId76" display="Karan@247462"/>
+    <hyperlink ref="B88" r:id="rId77" display="Karan@247462"/>
+    <hyperlink ref="B84" r:id="rId78" display="Karan@247462"/>
+    <hyperlink ref="B90" r:id="rId79" display="Karan@247462"/>
+    <hyperlink ref="B91" r:id="rId80" display="khandu.chikhli@gmail.com"/>
+    <hyperlink ref="B92" r:id="rId81" display="Karan@247462"/>
+    <hyperlink ref="B89" r:id="rId82" display="Karan@247462"/>
+    <hyperlink ref="B101" r:id="rId83"/>
+    <hyperlink ref="B102" r:id="rId84"/>
+    <hyperlink ref="B104" r:id="rId85"/>
+    <hyperlink ref="B105" r:id="rId86"/>
+    <hyperlink ref="B106" r:id="rId87"/>
+    <hyperlink ref="B107" r:id="rId88"/>
+    <hyperlink ref="B108" r:id="rId89"/>
+    <hyperlink ref="B109" r:id="rId90"/>
+    <hyperlink ref="B110" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B111" r:id="rId93"/>
+    <hyperlink ref="B112" r:id="rId94"/>
+    <hyperlink ref="B113" r:id="rId95"/>
+    <hyperlink ref="B114" r:id="rId96"/>
+    <hyperlink ref="B115" r:id="rId97"/>
+    <hyperlink ref="B116" r:id="rId98"/>
+    <hyperlink ref="B117" r:id="rId99"/>
+    <hyperlink ref="B118" r:id="rId100"/>
+    <hyperlink ref="B119" r:id="rId101"/>
+    <hyperlink ref="B120" r:id="rId102"/>
+    <hyperlink ref="B121" r:id="rId103"/>
+    <hyperlink ref="B122" r:id="rId104"/>
+    <hyperlink ref="B123" r:id="rId105"/>
+    <hyperlink ref="B124" r:id="rId106"/>
+    <hyperlink ref="B125" r:id="rId107"/>
+    <hyperlink ref="B126" r:id="rId108"/>
+    <hyperlink ref="B127" r:id="rId109"/>
+    <hyperlink ref="B128" r:id="rId110"/>
+    <hyperlink ref="B129" r:id="rId111"/>
+    <hyperlink ref="B130" r:id="rId112"/>
+    <hyperlink ref="B131" r:id="rId113"/>
+    <hyperlink ref="B132" r:id="rId114"/>
+    <hyperlink ref="B134" r:id="rId115" display="prabhat.tapi@hotmail.com"/>
+    <hyperlink ref="B135" r:id="rId116"/>
+    <hyperlink ref="B136" r:id="rId117"/>
+    <hyperlink ref="B137" r:id="rId118"/>
+    <hyperlink ref="B138" r:id="rId119"/>
+    <hyperlink ref="B139" r:id="rId120"/>
+    <hyperlink ref="B140" r:id="rId121"/>
+    <hyperlink ref="B141" r:id="rId122"/>
+    <hyperlink ref="B142" r:id="rId123"/>
+    <hyperlink ref="B143" r:id="rId124"/>
+    <hyperlink ref="B144" r:id="rId125"/>
+    <hyperlink ref="B145" r:id="rId126"/>
+    <hyperlink ref="B146" r:id="rId127"/>
+    <hyperlink ref="B147" r:id="rId128"/>
+    <hyperlink ref="B149" r:id="rId129"/>
+    <hyperlink ref="B150" r:id="rId130"/>
+    <hyperlink ref="B151" r:id="rId131"/>
+    <hyperlink ref="B153" r:id="rId132"/>
+    <hyperlink ref="B154" r:id="rId133"/>
+    <hyperlink ref="B155" r:id="rId134"/>
+    <hyperlink ref="B156" r:id="rId135"/>
+    <hyperlink ref="C2" r:id="rId136"/>
+    <hyperlink ref="B2" r:id="rId137"/>
+    <hyperlink ref="C3:C156" r:id="rId138" display="247462kk@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
